--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,103 +22,157 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
     <t>001985</t>
   </si>
   <si>
+    <t>010662</t>
+  </si>
+  <si>
+    <t>010966</t>
+  </si>
+  <si>
+    <t>001581</t>
+  </si>
+  <si>
+    <t>519909</t>
+  </si>
+  <si>
+    <t>512040</t>
+  </si>
+  <si>
+    <t>003413</t>
+  </si>
+  <si>
     <t>011306</t>
   </si>
   <si>
-    <t>001581</t>
-  </si>
-  <si>
-    <t>519909</t>
-  </si>
-  <si>
-    <t>003413</t>
-  </si>
-  <si>
-    <t>010662</t>
-  </si>
-  <si>
-    <t>010966</t>
-  </si>
-  <si>
-    <t>512040</t>
-  </si>
-  <si>
     <t>富国低碳新经济混合A</t>
   </si>
   <si>
+    <t>富国均衡优选混合</t>
+  </si>
+  <si>
+    <t>富国成长领航混合</t>
+  </si>
+  <si>
+    <t>华安沪港深通精选灵活配置混合</t>
+  </si>
+  <si>
+    <t>华安安顺灵活配置混合</t>
+  </si>
+  <si>
+    <t>富国中证价值ETF</t>
+  </si>
+  <si>
+    <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+  </si>
+  <si>
     <t>富国低碳新经济混合C</t>
   </si>
   <si>
-    <t>华安沪港深通精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>华安安顺灵活配置混合</t>
-  </si>
-  <si>
-    <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-  </si>
-  <si>
-    <t>富国均衡优选混合</t>
-  </si>
-  <si>
-    <t>富国成长领航混合</t>
-  </si>
-  <si>
-    <t>富国中证价值ETF</t>
+    <t>50.72</t>
+  </si>
+  <si>
+    <t>92.44</t>
+  </si>
+  <si>
+    <t>76.29</t>
+  </si>
+  <si>
+    <t>9.71</t>
+  </si>
+  <si>
+    <t>9.47</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.10</t>
   </si>
   <si>
     <t>93.49</t>
   </si>
   <si>
+    <t>41.56</t>
+  </si>
+  <si>
+    <t>33.43</t>
+  </si>
+  <si>
     <t>85.33</t>
   </si>
   <si>
     <t>79.62</t>
   </si>
   <si>
+    <t>98.57</t>
+  </si>
+  <si>
     <t>94.72</t>
   </si>
   <si>
-    <t>41.56</t>
-  </si>
-  <si>
-    <t>33.43</t>
-  </si>
-  <si>
-    <t>98.57</t>
-  </si>
-  <si>
     <t>7.43</t>
   </si>
   <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
     <t>2.45</t>
   </si>
   <si>
     <t>2.49</t>
   </si>
   <si>
+    <t>1.46</t>
+  </si>
+  <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>3.49</t>
-  </si>
-  <si>
-    <t>2.59</t>
-  </si>
-  <si>
-    <t>1.46</t>
+    <t>3.7685</t>
+  </si>
+  <si>
+    <t>3.2262</t>
+  </si>
+  <si>
+    <t>1.9759</t>
+  </si>
+  <si>
+    <t>0.2379</t>
+  </si>
+  <si>
+    <t>0.2358</t>
+  </si>
+  <si>
+    <t>0.0274</t>
+  </si>
+  <si>
+    <t>0.0260</t>
+  </si>
+  <si>
+    <t>0.0074</t>
   </si>
 </sst>
 </file>
@@ -476,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,164 +552,218 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1930</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.41</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.76</v>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>9.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.03</v>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.41</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.76</v>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.66</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.03</v>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.41</v>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2193,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>16.76</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2331,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,361 +456,341 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7685</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010662</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国均衡优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>41.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.2262</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010966</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国成长领航混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>76.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>33.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.9759</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001581</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安沪港深通精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2379</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519909</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安安顺灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2358</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.76</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -837,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -867,32 +847,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>010966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>富国成长领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>59.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60.22</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.8277</t>
+          <t>4.2268</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -905,32 +885,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.95</t>
+          <t>49.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.1944</t>
+          <t>3.7928</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -943,36 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010966</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国成长领航混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.07</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.1810</t>
+          <t>2.8962</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -981,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>66.14</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4875</t>
+          <t>0.6797</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1019,36 +999,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0465</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1057,396 +1037,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010662</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国均衡优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.5840</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010966</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国成长领航混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>64.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.1930</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>53.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.2020</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005368</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8621</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519909</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安安顺灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001581</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安沪港深通精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1602</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0739</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011127</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,7 +1385,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1795,32 +1415,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010966</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国成长领航混合</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.70</t>
+          <t>67.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>79.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.2268</t>
+          <t>5.5840</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1833,32 +1453,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>010966</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>富国成长领航混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.13</t>
+          <t>64.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>72.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.7928</t>
+          <t>5.1930</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1881,26 +1501,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.35</t>
+          <t>53.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.8962</t>
+          <t>4.2020</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1919,22 +1539,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6797</t>
+          <t>0.8621</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1947,36 +1567,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>519909</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>华安安顺灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>76.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0465</t>
+          <t>0.3041</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1985,36 +1605,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>011306</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>富国低碳新经济混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2049,7 +1745,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2089,22 +1785,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.86</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>60.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.0078</t>
+          <t>5.8277</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2117,32 +1813,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010966</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国成长领航混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.43</t>
+          <t>52.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.8064</t>
+          <t>5.1944</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2155,36 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>010966</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国成长领航混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>80.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>60.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.9657</t>
+          <t>5.1810</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2193,36 +1889,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>011306</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>富国低碳新经济混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2236,128 +2008,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>11.66</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.51</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>9.800000000000001</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>11.66</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>11.03</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>16.41</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>16.76</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.51</v>
       </c>
     </row>
@@ -583,6 +600,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -783,290 +1046,6 @@
       </c>
       <c r="H5" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010966</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国成长领航混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2268</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010662</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国均衡优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.7928</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.8962</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005368</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6797</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011127</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1131,32 +1110,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>010966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>富国成长领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.21</t>
+          <t>59.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8784</t>
+          <t>4.2268</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1169,32 +1148,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010966</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国成长领航混合</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59.70</t>
+          <t>49.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.6387</t>
+          <t>3.7928</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1207,36 +1186,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7526</t>
+          <t>2.8962</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1245,36 +1224,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6882</t>
+          <t>0.6797</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1283,36 +1262,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0633</t>
+          <t>0.0465</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1321,36 +1300,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1359,6 +1338,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1718,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
+++ b/数据整理/stocks/A股/深证主板/002145-中核钛白.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>10.13</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>9.800000000000001</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>11.66</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>11.03</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>16.41</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>16.76</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.51</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>42.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8376</t>
+          <t>3.4293</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.16</t>
+          <t>44.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>90.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6790</t>
+          <t>3.2914</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8759</t>
+          <t>1.5447</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.80</t>
+          <t>98.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7196</t>
+          <t>0.3068</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.1526</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +863,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1046,290 +1309,6 @@
       </c>
       <c r="H5" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010966</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国成长领航混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2268</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010662</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国均衡优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.7928</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.8962</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005368</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6797</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011127</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1394,32 +1373,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>010966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>富国成长领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.21</t>
+          <t>59.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8784</t>
+          <t>4.2268</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1432,32 +1411,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010966</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国成长领航混合</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59.70</t>
+          <t>49.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.6387</t>
+          <t>3.7928</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1470,36 +1449,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7526</t>
+          <t>2.8962</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1508,36 +1487,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6882</t>
+          <t>0.6797</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1546,36 +1525,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0633</t>
+          <t>0.0465</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1584,36 +1563,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1622,6 +1601,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1981,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
